--- a/tests/cli/mpfile/data/df2.xlsx
+++ b/tests/cli/mpfile/data/df2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/macpie/tests/cli/mpfile/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFD0ED8-3C5C-0545-A288-1C1AED305E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0374A5D-0264-A84D-9CC8-2FF3A5DBACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5800" yWindow="3160" windowWidth="27640" windowHeight="16940" xr2:uid="{FCB703DD-5E9A-E447-A80A-D9D8B5FEA993}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>PIDN</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>CDRZ</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>CDRM</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,7 +536,7 @@
         <v>38081</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>14</v>
@@ -620,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>3</v>
